--- a/三亚过夜游客统计新表.xlsx
+++ b/三亚过夜游客统计新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="2"/>
+    <workbookView windowWidth="21210" windowHeight="4610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>2018年</t>
   </si>
@@ -91,7 +91,7 @@
     <t>客位</t>
   </si>
   <si>
-    <t>铁路通车里程</t>
+    <t>铁路营业里程（公里）</t>
   </si>
   <si>
     <t>民航主要航线</t>
@@ -103,9 +103,6 @@
     <t>14988</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
   </si>
   <si>
     <t>9335</t>
-  </si>
-  <si>
-    <t>226</t>
   </si>
   <si>
     <t>163</t>
@@ -1984,7 +1978,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2023,18 +2017,20 @@
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
       <c r="D2" s="4">
         <v>180</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6">
+        <v>693.748</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2047,18 +2043,20 @@
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
       <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6">
+        <v>693.734</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2069,20 +2067,22 @@
         <v>2015</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6">
+        <v>1033.42</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2093,20 +2093,22 @@
         <v>2016</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6">
+        <v>1033.4</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2117,22 +2119,22 @@
         <v>2017</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>733</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
+      <c r="F6" s="6">
+        <v>1033.42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2143,22 +2145,22 @@
         <v>2018</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>734</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="6">
+        <v>1033.42</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2169,20 +2171,22 @@
         <v>2019</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4">
-        <v>8</v>
+        <v>745</v>
       </c>
       <c r="D8" s="4">
         <v>247</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1033.42</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2193,20 +2197,22 @@
         <v>2020</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4">
+        <v>705</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1033.42</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2217,20 +2223,22 @@
         <v>2021</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4">
+        <v>930</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="6">
+        <v>1033.42</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2241,20 +2249,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4">
+        <v>924</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="6">
+        <v>1033.42</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2265,29 +2275,28 @@
         <v>2023</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4">
+        <v>924</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="6">
+        <v>1033.4</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13">
-        <v>2024</v>
-      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2351,22 +2360,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2374,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1907.6</v>
@@ -2394,10 +2403,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1907.6</v>
@@ -2417,10 +2426,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>82.5</v>
@@ -2440,10 +2449,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>129.9</v>
@@ -2463,10 +2472,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>42.2</v>
@@ -2486,10 +2495,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>1653.1</v>
@@ -2509,10 +2518,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>4.8</v>
@@ -2532,10 +2541,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>1912.1</v>
@@ -2555,10 +2564,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -2578,10 +2587,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2601,10 +2610,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>215</v>
@@ -2624,10 +2633,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>7909.1</v>
@@ -2647,10 +2656,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>215</v>
@@ -2670,10 +2679,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>7909.1</v>
@@ -2693,10 +2702,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>1372.1</v>
@@ -2736,22 +2745,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3298,19 +3307,19 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/三亚过夜游客统计新表.xlsx
+++ b/三亚过夜游客统计新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="4610" activeTab="2"/>
+    <workbookView windowWidth="21210" windowHeight="6550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1977,8 +1977,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2732,13 +2732,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="27.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="22.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="28.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="14.9090909090909" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
@@ -2765,515 +2775,254 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="B2">
-        <v>42.8</v>
+        <v>45.3</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>41.6</v>
       </c>
       <c r="D2">
-        <v>16.3</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>52.3</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>84.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="B3">
-        <v>43.7</v>
+        <v>45.3</v>
       </c>
       <c r="C3">
-        <v>39.9</v>
+        <v>41.6</v>
       </c>
       <c r="D3">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>53.3</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>30.8</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="B4">
-        <v>44.3</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>40.5</v>
+        <v>36.5</v>
       </c>
       <c r="D4">
-        <v>18.2</v>
+        <v>15.9</v>
       </c>
       <c r="E4">
-        <v>54.5</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>90.9</v>
       </c>
       <c r="G4">
-        <v>49.1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>44.3</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>40.6</v>
+        <v>39.8</v>
       </c>
       <c r="D5">
-        <v>18.3</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>54.9</v>
+        <v>68</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>91.7</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="B6">
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>40.8</v>
+        <v>39.6</v>
       </c>
       <c r="D6">
-        <v>18.4</v>
+        <v>15.4</v>
       </c>
       <c r="E6">
-        <v>55.7</v>
+        <v>69</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>91.7</v>
       </c>
       <c r="G6">
-        <v>59.5</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="B7">
-        <v>44.8</v>
+        <v>41.1</v>
       </c>
       <c r="C7">
-        <v>41.1</v>
+        <v>37.9</v>
       </c>
       <c r="D7">
-        <v>18.9</v>
+        <v>14.2</v>
       </c>
       <c r="E7">
-        <v>56.7</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>91.7</v>
       </c>
       <c r="G7">
-        <v>60.6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="B8">
-        <v>44.9</v>
+        <v>41.1</v>
       </c>
       <c r="C8">
-        <v>41.3</v>
+        <v>33.7</v>
       </c>
       <c r="D8">
-        <v>18.9</v>
+        <v>12.4</v>
       </c>
       <c r="E8">
-        <v>57.1</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>62.5</v>
+        <v>91.7</v>
       </c>
       <c r="G8">
-        <v>76</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>42.3</v>
       </c>
       <c r="C9">
-        <v>41.4</v>
+        <v>38.1</v>
       </c>
       <c r="D9">
-        <v>18.9</v>
+        <v>13.9</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9">
-        <v>54.2</v>
+        <v>83.3</v>
       </c>
       <c r="G9">
-        <v>76.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="B10">
-        <v>45.2</v>
+        <v>42.3</v>
       </c>
       <c r="C10">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>18.9</v>
+        <v>16.3</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>81.8</v>
+        <v>90.9</v>
       </c>
       <c r="G10">
-        <v>77.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="B11">
-        <v>45.3</v>
+        <v>42.3</v>
       </c>
       <c r="C11">
-        <v>41.6</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16.3</v>
       </c>
       <c r="E11">
-        <v>68</v>
+        <v>70.1</v>
       </c>
       <c r="F11">
-        <v>90.9</v>
+        <v>81.8</v>
       </c>
       <c r="G11">
-        <v>79.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="B12">
-        <v>45.3</v>
+        <v>42.3</v>
       </c>
       <c r="C12">
-        <v>41.6</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>17.2</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>70.1</v>
       </c>
       <c r="F12">
-        <v>90.1</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2012</v>
-      </c>
-      <c r="B13">
-        <v>45.3</v>
-      </c>
-      <c r="C13">
-        <v>41.6</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>68</v>
-      </c>
-      <c r="F13">
-        <v>91.7</v>
-      </c>
-      <c r="G13">
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2013</v>
-      </c>
-      <c r="B14">
-        <v>45.3</v>
-      </c>
-      <c r="C14">
-        <v>41.6</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>68</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-      <c r="G14">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-      <c r="B15">
-        <v>45.3</v>
-      </c>
-      <c r="C15">
-        <v>41.6</v>
-      </c>
-      <c r="D15">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>68</v>
-      </c>
-      <c r="F15">
-        <v>90</v>
-      </c>
-      <c r="G15">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>2015</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>36.5</v>
-      </c>
-      <c r="D16">
-        <v>15.9</v>
-      </c>
-      <c r="E16">
-        <v>68</v>
-      </c>
-      <c r="F16">
-        <v>90.9</v>
-      </c>
-      <c r="G16">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>2016</v>
-      </c>
-      <c r="B17">
-        <v>43</v>
-      </c>
-      <c r="C17">
-        <v>39.8</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>68</v>
-      </c>
-      <c r="F17">
-        <v>91.7</v>
-      </c>
-      <c r="G17">
-        <v>87.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>2017</v>
-      </c>
-      <c r="B18">
-        <v>43</v>
-      </c>
-      <c r="C18">
-        <v>39.6</v>
-      </c>
-      <c r="D18">
-        <v>15.4</v>
-      </c>
-      <c r="E18">
-        <v>69</v>
-      </c>
-      <c r="F18">
-        <v>91.7</v>
-      </c>
-      <c r="G18">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>41.1</v>
-      </c>
-      <c r="C19">
-        <v>37.9</v>
-      </c>
-      <c r="D19">
-        <v>14.2</v>
-      </c>
-      <c r="E19">
-        <v>69</v>
-      </c>
-      <c r="F19">
-        <v>91.7</v>
-      </c>
-      <c r="G19">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>2019</v>
-      </c>
-      <c r="B20">
-        <v>41.1</v>
-      </c>
-      <c r="C20">
-        <v>33.7</v>
-      </c>
-      <c r="D20">
-        <v>12.4</v>
-      </c>
-      <c r="E20">
-        <v>69</v>
-      </c>
-      <c r="F20">
-        <v>91.7</v>
-      </c>
-      <c r="G20">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>2020</v>
-      </c>
-      <c r="B21">
-        <v>42.3</v>
-      </c>
-      <c r="C21">
-        <v>38.1</v>
-      </c>
-      <c r="D21">
-        <v>13.9</v>
-      </c>
-      <c r="E21">
-        <v>69</v>
-      </c>
-      <c r="F21">
-        <v>83.3</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>2021</v>
-      </c>
-      <c r="B22">
-        <v>42.3</v>
-      </c>
-      <c r="C22">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>16.3</v>
-      </c>
-      <c r="E22">
-        <v>70</v>
-      </c>
-      <c r="F22">
-        <v>90.9</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>16.3</v>
-      </c>
-      <c r="E23">
-        <v>70.1</v>
-      </c>
-      <c r="F23">
-        <v>81.8</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>2023</v>
-      </c>
-      <c r="D24">
-        <v>17.2</v>
-      </c>
-      <c r="E24">
-        <v>70.1</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
         <v>100</v>
       </c>
     </row>

--- a/三亚过夜游客统计新表.xlsx
+++ b/三亚过夜游客统计新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="6550" activeTab="4"/>
+    <workbookView windowWidth="21210" windowHeight="6550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>2018年</t>
   </si>
@@ -295,6 +296,12 @@
     <t>城镇生活污水集中处理率</t>
   </si>
   <si>
+    <t>[0.0436 0.1016 0.5909 0.0046 0.0825 0.1767]</t>
+  </si>
+  <si>
+    <t>0.06974043959731291, 0.09883631523461356, 0.10843127001545136, 0.044659455795208865, 0.315379608641052, 0.3629529107163613</t>
+  </si>
+  <si>
     <t>游客数量（万人）</t>
   </si>
   <si>
@@ -307,7 +314,10 @@
     <t>环境指数</t>
   </si>
   <si>
-    <t>旅游业发展指数</t>
+    <t>海南省A级景区数量</t>
+  </si>
+  <si>
+    <t>A级别景区累计数量</t>
   </si>
 </sst>
 </file>
@@ -330,12 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +359,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1023,33 +1033,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,61 +1710,61 @@
       <c r="A19">
         <v>2024</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="11">
         <v>2615.52</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="11">
         <v>75.07</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="11">
         <v>2540.44</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1841,7 +1854,7 @@
       <c r="B5">
         <v>302.3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>291.9</v>
       </c>
       <c r="D5">
@@ -1852,7 +1865,7 @@
       <c r="A6" s="8">
         <v>2016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>322.4</v>
       </c>
       <c r="C6">
@@ -1961,10 +1974,10 @@
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="F20" s="1"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="1"/>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1978,7 +1991,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2287,7 +2300,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="6">
-        <v>1033.4</v>
+        <v>1033.42</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>55</v>
@@ -2732,10 +2745,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3026,6 +3039,16 @@
         <v>100</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3035,10 +3058,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3056,159 +3079,352 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2">
-        <v>1054.0791</v>
+        <v>1180.2126</v>
       </c>
       <c r="C2">
-        <v>175.5</v>
+        <v>217.2</v>
+      </c>
+      <c r="D2">
+        <v>0.3301</v>
+      </c>
+      <c r="E2">
+        <v>0.308</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B3">
-        <v>1180.2126</v>
+        <v>1313.8978</v>
       </c>
       <c r="C3">
-        <v>217.2</v>
+        <v>258</v>
+      </c>
+      <c r="D3">
+        <v>0.2949</v>
+      </c>
+      <c r="E3">
+        <v>0.3236</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4">
-        <v>1313.8978</v>
-      </c>
-      <c r="C4">
-        <v>258</v>
+        <v>1459.9087</v>
+      </c>
+      <c r="C4" s="2">
+        <v>291.9</v>
+      </c>
+      <c r="D4">
+        <v>0.3058</v>
+      </c>
+      <c r="E4">
+        <v>0.3456</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>1459.9087</v>
-      </c>
-      <c r="C5" s="1">
-        <v>291.9</v>
+        <v>1606.6925</v>
+      </c>
+      <c r="C5">
+        <v>305.5</v>
+      </c>
+      <c r="D5">
+        <v>0.368</v>
+      </c>
+      <c r="E5">
+        <v>0.4014</v>
+      </c>
+      <c r="F5" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6">
-        <v>1606.6925</v>
+        <v>1761.6876</v>
       </c>
       <c r="C6">
-        <v>305.5</v>
+        <v>370.4</v>
+      </c>
+      <c r="D6">
+        <v>0.5768</v>
+      </c>
+      <c r="E6">
+        <v>0.4699</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7">
-        <v>1761.6876</v>
+        <v>2028.0823</v>
       </c>
       <c r="C7">
-        <v>370.4</v>
+        <v>469.91</v>
+      </c>
+      <c r="D7">
+        <v>0.6484</v>
+      </c>
+      <c r="E7">
+        <v>0.319</v>
+      </c>
+      <c r="F7" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B8">
-        <v>2028.0823</v>
+        <v>2203.6352</v>
       </c>
       <c r="C8">
-        <v>469.91</v>
+        <v>525.33</v>
+      </c>
+      <c r="D8">
+        <v>0.7303</v>
+      </c>
+      <c r="E8">
+        <v>0.5206</v>
+      </c>
+      <c r="F8" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B9">
-        <v>2203.6352</v>
+        <v>1698.9987</v>
       </c>
       <c r="C9">
-        <v>525.33</v>
+        <v>417.73</v>
+      </c>
+      <c r="D9">
+        <v>0.7157</v>
+      </c>
+      <c r="E9">
+        <v>0.5389</v>
+      </c>
+      <c r="F9" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10">
-        <v>1698.9987</v>
+        <v>2147.8566</v>
       </c>
       <c r="C10">
-        <v>417.73</v>
+        <v>743.2</v>
+      </c>
+      <c r="D10">
+        <v>0.6493</v>
+      </c>
+      <c r="E10">
+        <v>0.702</v>
+      </c>
+      <c r="F10" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11">
-        <v>2147.8566</v>
+        <v>1303.3202</v>
       </c>
       <c r="C11">
-        <v>743.2</v>
+        <v>431.54</v>
+      </c>
+      <c r="D11">
+        <v>0.5535</v>
+      </c>
+      <c r="E11">
+        <v>0.5189</v>
+      </c>
+      <c r="F11" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>2541.4663</v>
+      </c>
+      <c r="C12">
+        <v>887.22</v>
+      </c>
+      <c r="D12">
+        <v>0.5724</v>
+      </c>
+      <c r="E12">
+        <v>0.9565</v>
+      </c>
+      <c r="F12" s="1">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>2022</v>
       </c>
-      <c r="B12">
-        <v>1303.3202</v>
-      </c>
-      <c r="C12">
-        <v>431.54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="B11" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>2023</v>
       </c>
-      <c r="B13">
-        <v>2541.4663</v>
-      </c>
-      <c r="C13">
-        <v>887.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>2024</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2540.44</v>
+      <c r="B12" s="1">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/三亚过夜游客统计新表.xlsx
+++ b/三亚过夜游客统计新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="6550" activeTab="5"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>2018年</t>
   </si>
@@ -296,18 +297,12 @@
     <t>城镇生活污水集中处理率</t>
   </si>
   <si>
-    <t>[0.0436 0.1016 0.5909 0.0046 0.0825 0.1767]</t>
-  </si>
-  <si>
-    <t>0.06974043959731291, 0.09883631523461356, 0.10843127001545136, 0.044659455795208865, 0.315379608641052, 0.3629529107163613</t>
+    <t xml:space="preserve">总收入 </t>
   </si>
   <si>
     <t>游客数量（万人）</t>
   </si>
   <si>
-    <t>人均消费（目前是总收入 亿元）</t>
-  </si>
-  <si>
     <t>交通指数</t>
   </si>
   <si>
@@ -318,6 +313,42 @@
   </si>
   <si>
     <t>A级别景区累计数量</t>
+  </si>
+  <si>
+    <t>人均生产总值（元）</t>
+  </si>
+  <si>
+    <t>常住人口 (万人)</t>
+  </si>
+  <si>
+    <t>城镇化率 (%)</t>
+  </si>
+  <si>
+    <t>人口密度（人/平方公里）</t>
+  </si>
+  <si>
+    <t>PM2.5 (μg/m³)</t>
+  </si>
+  <si>
+    <t>NO₂ (μg/m³)</t>
+  </si>
+  <si>
+    <t>SO₂ (μg/m³)</t>
+  </si>
+  <si>
+    <t>水资源总量（亿立方米）</t>
+  </si>
+  <si>
+    <t>每万元GDP水耗（立方米）</t>
+  </si>
+  <si>
+    <t>人均用水量（平方米/人）</t>
+  </si>
+  <si>
+    <t>耕地面积（公顷）</t>
+  </si>
+  <si>
+    <t>人均耕地面积（公顷）</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1058,7 +1090,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1423,7 +1454,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D19"/>
+      <selection activeCell="B18" sqref="B8:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1437,30 +1468,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1525,7 +1556,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1595,7 +1626,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>2016</v>
       </c>
       <c r="B11">
@@ -1640,7 +1671,7 @@
       <c r="A14">
         <v>2019</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="3">
         <v>2294.263</v>
       </c>
       <c r="C14">
@@ -1657,7 +1688,7 @@
       <c r="B15">
         <v>1714.4047</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="3">
         <v>15.406</v>
       </c>
       <c r="D15">
@@ -1792,21 +1823,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>2012</v>
       </c>
       <c r="B2">
@@ -1820,7 +1851,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2013</v>
       </c>
       <c r="B3">
@@ -1834,7 +1865,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>2014</v>
       </c>
       <c r="B4">
@@ -1848,7 +1879,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>2015</v>
       </c>
       <c r="B5">
@@ -1862,7 +1893,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>2016</v>
       </c>
       <c r="B6" s="2">
@@ -1991,7 +2022,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G15" sqref="G13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2001,25 +2032,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2027,320 +2058,320 @@
       <c r="A2">
         <v>2013</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>180</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>693.748</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2014</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>693.734</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2015</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>1033.4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>733</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>734</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
         <v>2019</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>745</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>247</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
         <v>2020</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>705</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>930</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>924</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
         <v>2023</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>924</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>1033.42</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2354,7 +2385,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2369,25 +2400,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2745,10 +2776,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2764,25 +2795,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3037,16 +3068,6 @@
       </c>
       <c r="G12">
         <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3060,8 +3081,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3079,19 +3100,19 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3099,10 +3120,10 @@
         <v>2013</v>
       </c>
       <c r="B2">
-        <v>1180.2126</v>
+        <v>217.2</v>
       </c>
       <c r="C2">
-        <v>217.2</v>
+        <v>1228.3977</v>
       </c>
       <c r="D2">
         <v>0.3301</v>
@@ -3119,10 +3140,10 @@
         <v>2014</v>
       </c>
       <c r="B3">
-        <v>1313.8978</v>
+        <v>258</v>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>1352.7615</v>
       </c>
       <c r="D3">
         <v>0.2949</v>
@@ -3138,11 +3159,11 @@
       <c r="A4">
         <v>2015</v>
       </c>
-      <c r="B4">
-        <v>1459.9087</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
         <v>291.9</v>
+      </c>
+      <c r="C4">
+        <v>1495.7271</v>
       </c>
       <c r="D4">
         <v>0.3058</v>
@@ -3159,10 +3180,10 @@
         <v>2016</v>
       </c>
       <c r="B5">
-        <v>1606.6925</v>
+        <v>305.5</v>
       </c>
       <c r="C5">
-        <v>305.5</v>
+        <v>1651.5782</v>
       </c>
       <c r="D5">
         <v>0.368</v>
@@ -3179,10 +3200,10 @@
         <v>2017</v>
       </c>
       <c r="B6">
-        <v>1761.6876</v>
+        <v>370.4</v>
       </c>
       <c r="C6">
-        <v>370.4</v>
+        <v>1830.9674</v>
       </c>
       <c r="D6">
         <v>0.5768</v>
@@ -3199,10 +3220,10 @@
         <v>2018</v>
       </c>
       <c r="B7">
-        <v>2028.0823</v>
+        <v>469.91</v>
       </c>
       <c r="C7">
-        <v>469.91</v>
+        <v>2099.6981</v>
       </c>
       <c r="D7">
         <v>0.6484</v>
@@ -3219,10 +3240,10 @@
         <v>2019</v>
       </c>
       <c r="B8">
-        <v>2203.6352</v>
-      </c>
-      <c r="C8">
         <v>525.33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2294.263</v>
       </c>
       <c r="D8">
         <v>0.7303</v>
@@ -3239,10 +3260,10 @@
         <v>2020</v>
       </c>
       <c r="B9">
-        <v>1698.9987</v>
+        <v>417.73</v>
       </c>
       <c r="C9">
-        <v>417.73</v>
+        <v>1714.4047</v>
       </c>
       <c r="D9">
         <v>0.7157</v>
@@ -3259,10 +3280,10 @@
         <v>2021</v>
       </c>
       <c r="B10">
-        <v>2147.8566</v>
+        <v>743.2</v>
       </c>
       <c r="C10">
-        <v>743.2</v>
+        <v>2162.0435</v>
       </c>
       <c r="D10">
         <v>0.6493</v>
@@ -3279,10 +3300,10 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>1303.3202</v>
+        <v>431.54</v>
       </c>
       <c r="C11">
-        <v>431.54</v>
+        <v>1314.7895</v>
       </c>
       <c r="D11">
         <v>0.5535</v>
@@ -3299,10 +3320,10 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>2541.4663</v>
+        <v>887.22</v>
       </c>
       <c r="C12">
-        <v>887.22</v>
+        <v>2571.1846</v>
       </c>
       <c r="D12">
         <v>0.5724</v>
@@ -3336,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3425,6 +3446,660 @@
       </c>
       <c r="B12" s="1">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="27.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="22.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="29.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="22.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="22.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="23.5454545454545" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="21.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="27.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="27.6363636363636" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="24.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>45650</v>
+      </c>
+      <c r="C2">
+        <v>73.2</v>
+      </c>
+      <c r="D2">
+        <v>69.89</v>
+      </c>
+      <c r="E2">
+        <f>C2*10000/(1921)</f>
+        <v>381.051535658511</v>
+      </c>
+      <c r="F2">
+        <v>68</v>
+      </c>
+      <c r="G2">
+        <v>84.5</v>
+      </c>
+      <c r="H2">
+        <v>68.79</v>
+      </c>
+      <c r="I2">
+        <v>8.3</v>
+      </c>
+      <c r="J2">
+        <v>1.92</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>16.23</v>
+      </c>
+      <c r="M2">
+        <v>73.81</v>
+      </c>
+      <c r="N2">
+        <v>391.38</v>
+      </c>
+      <c r="O2">
+        <v>23454</v>
+      </c>
+      <c r="P2">
+        <f>O2/(C2*10000)</f>
+        <v>0.0320409836065574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3">
+        <v>48447</v>
+      </c>
+      <c r="C3">
+        <v>74.19</v>
+      </c>
+      <c r="D3">
+        <v>70.97</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">C3*10000/(1921)</f>
+        <v>386.20510150963</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>85.4</v>
+      </c>
+      <c r="H3">
+        <v>67.1</v>
+      </c>
+      <c r="I3">
+        <v>7.06</v>
+      </c>
+      <c r="J3">
+        <v>1.69</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>13.74</v>
+      </c>
+      <c r="M3">
+        <v>68.6</v>
+      </c>
+      <c r="N3">
+        <v>379</v>
+      </c>
+      <c r="O3">
+        <v>23415</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="1">O3/(C3*10000)</f>
+        <v>0.0315608572583906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>51421</v>
+      </c>
+      <c r="C4">
+        <v>74.89</v>
+      </c>
+      <c r="D4">
+        <v>72.03</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>389.849036959917</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>64.74</v>
+      </c>
+      <c r="I4">
+        <v>7.28</v>
+      </c>
+      <c r="J4">
+        <v>1.92</v>
+      </c>
+      <c r="K4">
+        <v>90.9</v>
+      </c>
+      <c r="L4">
+        <v>11.23</v>
+      </c>
+      <c r="M4">
+        <v>65.7</v>
+      </c>
+      <c r="N4">
+        <v>382</v>
+      </c>
+      <c r="O4">
+        <v>23022</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0.0307410869274937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
+        <v>55770</v>
+      </c>
+      <c r="C5">
+        <v>75.43</v>
+      </c>
+      <c r="D5">
+        <v>73.89</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>392.660072878709</v>
+      </c>
+      <c r="F5">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>87.4</v>
+      </c>
+      <c r="H5">
+        <v>58.68</v>
+      </c>
+      <c r="I5">
+        <v>6.85</v>
+      </c>
+      <c r="J5">
+        <v>1.72</v>
+      </c>
+      <c r="K5">
+        <v>91.7</v>
+      </c>
+      <c r="L5">
+        <v>19.78</v>
+      </c>
+      <c r="M5">
+        <v>62.1</v>
+      </c>
+      <c r="N5">
+        <v>386</v>
+      </c>
+      <c r="O5">
+        <v>22820</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.0302532149012329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>59657</v>
+      </c>
+      <c r="C6">
+        <v>76.42</v>
+      </c>
+      <c r="D6">
+        <v>74.91</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>397.813638729828</v>
+      </c>
+      <c r="F6">
+        <v>69</v>
+      </c>
+      <c r="G6">
+        <v>89.8</v>
+      </c>
+      <c r="H6">
+        <v>52.89</v>
+      </c>
+      <c r="I6">
+        <v>6.1</v>
+      </c>
+      <c r="J6">
+        <v>1.6</v>
+      </c>
+      <c r="K6">
+        <v>91.7</v>
+      </c>
+      <c r="L6">
+        <v>19.65</v>
+      </c>
+      <c r="M6">
+        <v>59.6</v>
+      </c>
+      <c r="N6">
+        <v>393</v>
+      </c>
+      <c r="O6">
+        <v>22785</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0.0298154933263544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>65841</v>
+      </c>
+      <c r="C7">
+        <v>95.83</v>
+      </c>
+      <c r="D7">
+        <v>75.93</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>498.854763144196</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>83</v>
+      </c>
+      <c r="H7">
+        <v>58.71</v>
+      </c>
+      <c r="I7">
+        <v>6.56</v>
+      </c>
+      <c r="J7">
+        <v>1.73</v>
+      </c>
+      <c r="K7">
+        <v>91.7</v>
+      </c>
+      <c r="L7">
+        <v>16.46</v>
+      </c>
+      <c r="M7">
+        <v>57.5</v>
+      </c>
+      <c r="N7">
+        <v>402</v>
+      </c>
+      <c r="O7">
+        <v>22785</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0.0237764791818846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>70796</v>
+      </c>
+      <c r="C8">
+        <v>98.85</v>
+      </c>
+      <c r="D8">
+        <v>76.26</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>514.575741801145</v>
+      </c>
+      <c r="F8">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>91.8</v>
+      </c>
+      <c r="H8">
+        <v>53.96</v>
+      </c>
+      <c r="I8">
+        <v>5.15</v>
+      </c>
+      <c r="J8">
+        <v>1.68</v>
+      </c>
+      <c r="K8">
+        <v>91.7</v>
+      </c>
+      <c r="L8">
+        <v>16.98</v>
+      </c>
+      <c r="M8">
+        <v>50.72</v>
+      </c>
+      <c r="N8">
+        <v>346.59</v>
+      </c>
+      <c r="O8">
+        <v>23315</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.0235862417804755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>69987</v>
+      </c>
+      <c r="C9">
+        <v>103.73</v>
+      </c>
+      <c r="D9">
+        <v>70.28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>539.979177511713</v>
+      </c>
+      <c r="F9">
+        <v>69</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>40.36</v>
+      </c>
+      <c r="I9">
+        <v>3.59</v>
+      </c>
+      <c r="J9">
+        <v>1.77</v>
+      </c>
+      <c r="K9">
+        <v>83.3</v>
+      </c>
+      <c r="L9">
+        <v>17.5</v>
+      </c>
+      <c r="M9">
+        <v>46</v>
+      </c>
+      <c r="N9">
+        <v>310</v>
+      </c>
+      <c r="O9">
+        <v>23214</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0.022379253832064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>81317</v>
+      </c>
+      <c r="C10">
+        <v>105.61</v>
+      </c>
+      <c r="D10">
+        <v>71.16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>549.765747006767</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>45.73</v>
+      </c>
+      <c r="I10">
+        <v>4.06</v>
+      </c>
+      <c r="J10">
+        <v>1.59</v>
+      </c>
+      <c r="K10">
+        <v>90.9</v>
+      </c>
+      <c r="L10">
+        <v>10.55</v>
+      </c>
+      <c r="M10">
+        <v>42.3</v>
+      </c>
+      <c r="N10">
+        <v>334.6</v>
+      </c>
+      <c r="O10">
+        <v>15906</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0.0150610737619544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>81687</v>
+      </c>
+      <c r="C11">
+        <v>106.59</v>
+      </c>
+      <c r="D11">
+        <v>71.79</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>554.867256637168</v>
+      </c>
+      <c r="F11">
+        <v>70.1</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>43.2</v>
+      </c>
+      <c r="I11">
+        <v>2.77</v>
+      </c>
+      <c r="J11">
+        <v>1.37</v>
+      </c>
+      <c r="K11">
+        <v>81.8</v>
+      </c>
+      <c r="L11">
+        <v>14.03</v>
+      </c>
+      <c r="M11">
+        <v>38.1</v>
+      </c>
+      <c r="N11">
+        <v>302.9</v>
+      </c>
+      <c r="O11">
+        <v>15931</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.0149460549770147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>89446</v>
+      </c>
+      <c r="C12">
+        <v>110.6</v>
+      </c>
+      <c r="D12">
+        <v>72.34</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>575.741801145237</v>
+      </c>
+      <c r="F12">
+        <v>70.1</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>42.36</v>
+      </c>
+      <c r="I12">
+        <v>2.87</v>
+      </c>
+      <c r="J12">
+        <v>1.16</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>14.2</v>
+      </c>
+      <c r="M12">
+        <v>35.78</v>
+      </c>
+      <c r="N12">
+        <v>314.2</v>
+      </c>
+      <c r="O12">
+        <v>15871</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0.0143499095840868</v>
       </c>
     </row>
   </sheetData>

--- a/三亚过夜游客统计新表.xlsx
+++ b/三亚过夜游客统计新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="7"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>2018年</t>
   </si>
@@ -84,9 +84,6 @@
     <t>公路通车里程</t>
   </si>
   <si>
-    <t>三、码头泊位个数</t>
-  </si>
-  <si>
     <t>客船</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
   </si>
   <si>
     <t>人均用水量（平方米/人）</t>
-  </si>
-  <si>
-    <t>耕地面积（公顷）</t>
   </si>
   <si>
     <t>人均耕地面积（公顷）</t>
@@ -1064,13 +1058,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1468,30 +1465,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1556,7 +1553,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1626,7 +1623,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>2016</v>
       </c>
       <c r="B11">
@@ -1741,61 +1738,61 @@
       <c r="A19">
         <v>2024</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>2615.52</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>75.07</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>2540.44</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1823,21 +1820,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>2012</v>
       </c>
       <c r="B2">
@@ -1851,7 +1848,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2013</v>
       </c>
       <c r="B3">
@@ -1865,7 +1862,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2014</v>
       </c>
       <c r="B4">
@@ -1879,7 +1876,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>2015</v>
       </c>
       <c r="B5">
@@ -1893,7 +1890,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>2016</v>
       </c>
       <c r="B6" s="2">
@@ -2022,7 +2019,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G13:G15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2032,346 +2029,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>2013</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6">
+        <v>180</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>180</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8">
+        <v>693.748</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7">
-        <v>693.748</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2014</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8">
+        <v>693.734</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7">
-        <v>693.734</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2015</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8">
+        <v>1033.42</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7">
-        <v>1033.42</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8">
+        <v>1033.4</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7">
-        <v>1033.4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5">
-        <v>733</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="8">
         <v>1033.42</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5">
-        <v>734</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="8">
+        <v>1033.42</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7">
-        <v>1033.42</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
         <v>2019</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6">
+        <v>247</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5">
-        <v>745</v>
-      </c>
-      <c r="D8" s="5">
-        <v>247</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8">
+        <v>1033.42</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7">
-        <v>1033.42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
         <v>2020</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5">
-        <v>705</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8">
+        <v>1033.42</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="7">
-        <v>1033.42</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5">
-        <v>930</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8">
+        <v>1033.42</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7">
-        <v>1033.42</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5">
-        <v>924</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8">
+        <v>1033.42</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7">
-        <v>1033.42</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
         <v>2023</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="5">
-        <v>924</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="8">
         <v>1033.42</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2400,26 +2361,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2427,7 +2388,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1907.6</v>
@@ -2447,10 +2408,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1907.6</v>
@@ -2470,10 +2431,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>82.5</v>
@@ -2493,10 +2454,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>129.9</v>
@@ -2516,10 +2477,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>42.2</v>
@@ -2539,10 +2500,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>1653.1</v>
@@ -2562,10 +2523,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>4.8</v>
@@ -2585,10 +2546,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>1912.1</v>
@@ -2608,10 +2569,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -2631,10 +2592,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2654,10 +2615,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
       </c>
       <c r="C12">
         <v>215</v>
@@ -2677,10 +2638,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
         <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
       </c>
       <c r="C13">
         <v>7909.1</v>
@@ -2700,10 +2661,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>215</v>
@@ -2723,10 +2684,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
       </c>
       <c r="C15">
         <v>7909.1</v>
@@ -2746,10 +2707,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>1372.1</v>
@@ -2795,26 +2756,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3079,10 +3040,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3100,19 +3061,19 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3126,10 +3087,10 @@
         <v>1228.3977</v>
       </c>
       <c r="D2">
-        <v>0.3301</v>
+        <v>0.3584</v>
       </c>
       <c r="E2">
-        <v>0.308</v>
+        <v>0.3723</v>
       </c>
       <c r="F2" s="1">
         <v>15</v>
@@ -3146,10 +3107,10 @@
         <v>1352.7615</v>
       </c>
       <c r="D3">
-        <v>0.2949</v>
+        <v>0.3151</v>
       </c>
       <c r="E3">
-        <v>0.3236</v>
+        <v>0.3771</v>
       </c>
       <c r="F3" s="1">
         <v>18</v>
@@ -3166,10 +3127,10 @@
         <v>1495.7271</v>
       </c>
       <c r="D4">
-        <v>0.3058</v>
+        <v>0.358</v>
       </c>
       <c r="E4">
-        <v>0.3456</v>
+        <v>0.2155</v>
       </c>
       <c r="F4" s="1">
         <v>20</v>
@@ -3186,10 +3147,10 @@
         <v>1651.5782</v>
       </c>
       <c r="D5">
-        <v>0.368</v>
+        <v>0.4455</v>
       </c>
       <c r="E5">
-        <v>0.4014</v>
+        <v>0.249</v>
       </c>
       <c r="F5" s="1">
         <v>22</v>
@@ -3206,10 +3167,10 @@
         <v>1830.9674</v>
       </c>
       <c r="D6">
-        <v>0.5768</v>
+        <v>0.5272</v>
       </c>
       <c r="E6">
-        <v>0.4699</v>
+        <v>0.478</v>
       </c>
       <c r="F6" s="1">
         <v>25</v>
@@ -3226,10 +3187,10 @@
         <v>2099.6981</v>
       </c>
       <c r="D7">
-        <v>0.6484</v>
+        <v>0.6224</v>
       </c>
       <c r="E7">
-        <v>0.319</v>
+        <v>0.3579</v>
       </c>
       <c r="F7" s="1">
         <v>29</v>
@@ -3245,11 +3206,11 @@
       <c r="C8" s="3">
         <v>2294.263</v>
       </c>
-      <c r="D8">
-        <v>0.7303</v>
+      <c r="D8" s="4">
+        <v>0.7339</v>
       </c>
       <c r="E8">
-        <v>0.5206</v>
+        <v>0.4107</v>
       </c>
       <c r="F8" s="1">
         <v>35</v>
@@ -3266,10 +3227,10 @@
         <v>1714.4047</v>
       </c>
       <c r="D9">
-        <v>0.7157</v>
+        <v>0.7247</v>
       </c>
       <c r="E9">
-        <v>0.5389</v>
+        <v>0.5285</v>
       </c>
       <c r="F9" s="1">
         <v>41</v>
@@ -3286,10 +3247,10 @@
         <v>2162.0435</v>
       </c>
       <c r="D10">
-        <v>0.6493</v>
+        <v>0.5955</v>
       </c>
       <c r="E10">
-        <v>0.702</v>
+        <v>0.7708</v>
       </c>
       <c r="F10" s="1">
         <v>55</v>
@@ -3306,10 +3267,10 @@
         <v>1314.7895</v>
       </c>
       <c r="D11">
-        <v>0.5535</v>
+        <v>0.4879</v>
       </c>
       <c r="E11">
-        <v>0.5189</v>
+        <v>0.7241</v>
       </c>
       <c r="F11" s="1">
         <v>62</v>
@@ -3326,14 +3287,17 @@
         <v>2571.1846</v>
       </c>
       <c r="D12">
-        <v>0.5724</v>
+        <v>0.4953</v>
       </c>
       <c r="E12">
-        <v>0.9565</v>
+        <v>0.8253</v>
       </c>
       <c r="F12" s="1">
         <v>66</v>
       </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3357,7 +3321,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3457,10 +3421,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3480,57 +3444,54 @@
     <col min="16" max="16" width="24.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>102</v>
       </c>
-      <c r="O1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3575,14 +3536,10 @@
         <v>391.38</v>
       </c>
       <c r="O2">
-        <v>23454</v>
-      </c>
-      <c r="P2">
-        <f>O2/(C2*10000)</f>
-        <v>0.0320409836065574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.032040984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -3627,14 +3584,10 @@
         <v>379</v>
       </c>
       <c r="O3">
-        <v>23415</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P12" si="1">O3/(C3*10000)</f>
-        <v>0.0315608572583906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.031560857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -3679,14 +3632,10 @@
         <v>382</v>
       </c>
       <c r="O4">
-        <v>23022</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="1"/>
-        <v>0.0307410869274937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.030741087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -3731,14 +3680,10 @@
         <v>386</v>
       </c>
       <c r="O5">
-        <v>22820</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>0.0302532149012329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.030253215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -3783,14 +3728,10 @@
         <v>393</v>
       </c>
       <c r="O6">
-        <v>22785</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0.0298154933263544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.029815493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -3835,14 +3776,10 @@
         <v>402</v>
       </c>
       <c r="O7">
-        <v>22785</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0.0237764791818846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.023776479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3887,14 +3824,10 @@
         <v>346.59</v>
       </c>
       <c r="O8">
-        <v>23315</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0.0235862417804755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.023586242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3939,14 +3872,10 @@
         <v>310</v>
       </c>
       <c r="O9">
-        <v>23214</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0.022379253832064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.022379254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -3991,14 +3920,10 @@
         <v>334.6</v>
       </c>
       <c r="O10">
-        <v>15906</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0.0150610737619544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.015061074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -4043,14 +3968,10 @@
         <v>302.9</v>
       </c>
       <c r="O11">
-        <v>15931</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0.0149460549770147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.014946055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -4095,11 +4016,7 @@
         <v>314.2</v>
       </c>
       <c r="O12">
-        <v>15871</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0.0143499095840868</v>
+        <v>0.01434991</v>
       </c>
     </row>
   </sheetData>

--- a/三亚过夜游客统计新表.xlsx
+++ b/三亚过夜游客统计新表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="5"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="187">
   <si>
     <t>2018年</t>
   </si>
@@ -343,6 +346,258 @@
   </si>
   <si>
     <t>人均耕地面积（公顷）</t>
+  </si>
+  <si>
+    <t>评价领域</t>
+  </si>
+  <si>
+    <t>评价指标</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>目标值</t>
+  </si>
+  <si>
+    <t>（一）经济发展及民生投入</t>
+  </si>
+  <si>
+    <t>1.人均GDP（2010年不变价）</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>≥57000</t>
+  </si>
+  <si>
+    <t>2.第三产业增加值占GDP比重</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>≥50</t>
+  </si>
+  <si>
+    <t>3.民生投入占一般预算财政支出比重</t>
+  </si>
+  <si>
+    <t>≥80</t>
+  </si>
+  <si>
+    <t>（二）收入分配</t>
+  </si>
+  <si>
+    <t>4.城乡居民人均收入（2010年不变价）</t>
+  </si>
+  <si>
+    <t>≥25000</t>
+  </si>
+  <si>
+    <t>5.城乡居民收入占GDP比重</t>
+  </si>
+  <si>
+    <t>6.城乡居民收入比</t>
+  </si>
+  <si>
+    <t>≤2.8</t>
+  </si>
+  <si>
+    <t>（三）就业与社会保障</t>
+  </si>
+  <si>
+    <t>7.城镇调查失业率</t>
+  </si>
+  <si>
+    <t>≤6</t>
+  </si>
+  <si>
+    <t>8.基本社会保障覆盖率</t>
+  </si>
+  <si>
+    <t>≥95</t>
+  </si>
+  <si>
+    <t>9.享受最低生活保障人口比例</t>
+  </si>
+  <si>
+    <t>≤2</t>
+  </si>
+  <si>
+    <t>（四）教育医疗</t>
+  </si>
+  <si>
+    <t>10.平均受教育年限</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>≥10.5</t>
+  </si>
+  <si>
+    <t>11.每千人口拥有职业医师数</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>≥1.95</t>
+  </si>
+  <si>
+    <t>12.平均预期寿命</t>
+  </si>
+  <si>
+    <t>岁</t>
+  </si>
+  <si>
+    <t>≥75</t>
+  </si>
+  <si>
+    <t>（五）文化体育</t>
+  </si>
+  <si>
+    <t>13.文化及相关产业增加值占GDP比重</t>
+  </si>
+  <si>
+    <t>≥5</t>
+  </si>
+  <si>
+    <t>14."三馆一站"覆盖率</t>
+  </si>
+  <si>
+    <t>≥110</t>
+  </si>
+  <si>
+    <t>（六）人居环境</t>
+  </si>
+  <si>
+    <t>15.环境质量指数</t>
+  </si>
+  <si>
+    <t>16.社会安全指数</t>
+  </si>
+  <si>
+    <t>≥100</t>
+  </si>
+  <si>
+    <t>（七）身心健康</t>
+  </si>
+  <si>
+    <t>17.身体心理健康度</t>
+  </si>
+  <si>
+    <t>18.自由支配时间充足率</t>
+  </si>
+  <si>
+    <t>19.休闲娱乐活动丰富度</t>
+  </si>
+  <si>
+    <t>（八）物质保障</t>
+  </si>
+  <si>
+    <t>20.经济收入满意度</t>
+  </si>
+  <si>
+    <t>21.住房条件满意度</t>
+  </si>
+  <si>
+    <t>22.社会保障满意度</t>
+  </si>
+  <si>
+    <t>（九）生活便利</t>
+  </si>
+  <si>
+    <t>23.交通状况满意度</t>
+  </si>
+  <si>
+    <t>24.医疗条件满意度</t>
+  </si>
+  <si>
+    <t>25.教育状况满意度</t>
+  </si>
+  <si>
+    <t>26.其他生活服务设施满意度</t>
+  </si>
+  <si>
+    <t>（十）环境舒畅</t>
+  </si>
+  <si>
+    <t>27.社会秩序满意度</t>
+  </si>
+  <si>
+    <t>28.自然生态环境满意度</t>
+  </si>
+  <si>
+    <t>29.公共安全满意度</t>
+  </si>
+  <si>
+    <t>30.居住环境满意度</t>
+  </si>
+  <si>
+    <t>（十一）自我价值实现</t>
+  </si>
+  <si>
+    <t>31.工作满意度</t>
+  </si>
+  <si>
+    <t>32.社会认同感满意度</t>
+  </si>
+  <si>
+    <t>33.家庭生活和谐度</t>
+  </si>
+  <si>
+    <t>34.未来预期自信度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅游总收入（亿元） </t>
+  </si>
+  <si>
+    <t>政府总支出（万元）</t>
+  </si>
+  <si>
+    <t>总支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  年份   教育支出   科技支出  文化旅游支出  社会保障支出  卫生健康支出  节能环保支出  城乡社区支出  农林水支出  交通运输支出  公共安全支出</t>
+  </si>
+  <si>
+    <t>2012 217256      0       0       0       0       0       0 107959       0       0</t>
+  </si>
+  <si>
+    <t>2013 242341      0       0       0       0       0       0 121514       0       0</t>
+  </si>
+  <si>
+    <t>2014 272361      0       0       0       0       0       0 142347       0       0</t>
+  </si>
+  <si>
+    <t>2015 326709      0       0       0       0       0       0 186756       0       0</t>
+  </si>
+  <si>
+    <t>2016 354461      0       0       0       0       0       0 207543       0       0</t>
+  </si>
+  <si>
+    <t>2017 359020      0       0       0       0       0       0 174101       0       0</t>
+  </si>
+  <si>
+    <t>2018 211224  31157   40522  106247   97812   79319  265651 198377   41749   96495</t>
+  </si>
+  <si>
+    <t>2019 224140 142459   70144  127419  118827   84052  319610 217614   74169  102928</t>
+  </si>
+  <si>
+    <t>2020 237056 150320   83741  131611  178314   85419  321167 225877  116066  103398</t>
+  </si>
+  <si>
+    <t>2021 242306 158545   43985  133521  121186   85767  431935 226579   98431  101781</t>
+  </si>
+  <si>
+    <t>2022 246753 180290   35782  147190  343425   74411  439851 228361  148671  107144</t>
+  </si>
+  <si>
+    <t>2023 267415 205916   76906  218326  259203   23369  217333 228951  178348  106215</t>
   </si>
 </sst>
 </file>
@@ -356,7 +611,14 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,178 +1190,179 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -1465,30 +1728,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1553,7 +1816,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1623,7 +1886,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>2016</v>
       </c>
       <c r="B11">
@@ -1738,66 +2001,398 @@
       <c r="A19">
         <v>2024</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <v>2615.52</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>75.07</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>2540.44</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="24.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>217.2</v>
+      </c>
+      <c r="C2">
+        <v>2014</v>
+      </c>
+      <c r="D2">
+        <v>1852589</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.6403</v>
+      </c>
+      <c r="H2" s="1">
+        <v>414708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3">
+        <v>258</v>
+      </c>
+      <c r="C3">
+        <v>2015</v>
+      </c>
+      <c r="D3">
+        <v>1974596</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>513465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>291.9</v>
+      </c>
+      <c r="C4">
+        <v>2016</v>
+      </c>
+      <c r="D4">
+        <v>2039427</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.94446</v>
+      </c>
+      <c r="H4" s="1">
+        <v>562004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
+        <v>305.5</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5">
+        <v>2428284</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.06208</v>
+      </c>
+      <c r="H5" s="1">
+        <v>533121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>370.4</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>2209223</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.02094</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1168553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>469.91</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+      <c r="D7">
+        <v>2585252</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03374</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1481362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>525.33</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>2686338</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1632969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>417.73</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>2635273</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.30807</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1644036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>743.2</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>2886399</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.28756</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1951878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>431.54</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>3233228</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.64157</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1781982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>887.22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.15653</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1820,21 +2415,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>2012</v>
       </c>
       <c r="B2">
@@ -1848,7 +2443,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2013</v>
       </c>
       <c r="B3">
@@ -1862,7 +2457,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>2014</v>
       </c>
       <c r="B4">
@@ -1876,13 +2471,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2015</v>
       </c>
       <c r="B5">
         <v>302.3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>291.9</v>
       </c>
       <c r="D5">
@@ -1890,10 +2485,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>2016</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>322.4</v>
       </c>
       <c r="C6">
@@ -2002,10 +2597,10 @@
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="F20" s="2"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="2"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2029,22 +2624,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2052,287 +2647,287 @@
       <c r="A2">
         <v>2013</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>180</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>693.748</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>693.734</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>1033.4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
         <v>2019</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>247</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
         <v>2020</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
         <v>2023</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>1033.42</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2361,25 +2956,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2756,25 +3351,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3042,8 +3637,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3092,7 +3687,7 @@
       <c r="E2">
         <v>0.3723</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>15</v>
       </c>
     </row>
@@ -3112,7 +3707,7 @@
       <c r="E3">
         <v>0.3771</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>18</v>
       </c>
     </row>
@@ -3120,7 +3715,7 @@
       <c r="A4">
         <v>2015</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>291.9</v>
       </c>
       <c r="C4">
@@ -3132,7 +3727,7 @@
       <c r="E4">
         <v>0.2155</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>20</v>
       </c>
     </row>
@@ -3152,7 +3747,7 @@
       <c r="E5">
         <v>0.249</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>22</v>
       </c>
     </row>
@@ -3172,7 +3767,7 @@
       <c r="E6">
         <v>0.478</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>25</v>
       </c>
     </row>
@@ -3192,7 +3787,7 @@
       <c r="E7">
         <v>0.3579</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>29</v>
       </c>
     </row>
@@ -3212,7 +3807,7 @@
       <c r="E8">
         <v>0.4107</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>35</v>
       </c>
     </row>
@@ -3232,7 +3827,7 @@
       <c r="E9">
         <v>0.5285</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>41</v>
       </c>
     </row>
@@ -3252,7 +3847,7 @@
       <c r="E10">
         <v>0.7708</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>55</v>
       </c>
     </row>
@@ -3272,7 +3867,7 @@
       <c r="E11">
         <v>0.7241</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>62</v>
       </c>
     </row>
@@ -3292,7 +3887,7 @@
       <c r="E12">
         <v>0.8253</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>66</v>
       </c>
     </row>
@@ -3317,98 +3912,98 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2013</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2014</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2015</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2017</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>2018</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>2019</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>2020</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>2021</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>2022</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>2023</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>66</v>
       </c>
     </row>
@@ -3421,10 +4016,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3444,7 +4039,7 @@
     <col min="16" max="16" width="24.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3490,8 +4085,20 @@
       <c r="O1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3538,8 +4145,20 @@
       <c r="O2">
         <v>0.032040984</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1228.3977</v>
+      </c>
+      <c r="Q2">
+        <v>0.3584</v>
+      </c>
+      <c r="R2">
+        <v>0.3723</v>
+      </c>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -3586,8 +4205,20 @@
       <c r="O3">
         <v>0.031560857</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1352.7615</v>
+      </c>
+      <c r="Q3">
+        <v>0.3151</v>
+      </c>
+      <c r="R3">
+        <v>0.3771</v>
+      </c>
+      <c r="S3" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -3634,8 +4265,20 @@
       <c r="O4">
         <v>0.030741087</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1495.7271</v>
+      </c>
+      <c r="Q4">
+        <v>0.358</v>
+      </c>
+      <c r="R4">
+        <v>0.2155</v>
+      </c>
+      <c r="S4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -3682,8 +4325,20 @@
       <c r="O5">
         <v>0.030253215</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1651.5782</v>
+      </c>
+      <c r="Q5">
+        <v>0.4455</v>
+      </c>
+      <c r="R5">
+        <v>0.249</v>
+      </c>
+      <c r="S5" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -3730,8 +4385,20 @@
       <c r="O6">
         <v>0.029815493</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1830.9674</v>
+      </c>
+      <c r="Q6">
+        <v>0.5272</v>
+      </c>
+      <c r="R6">
+        <v>0.478</v>
+      </c>
+      <c r="S6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -3778,8 +4445,20 @@
       <c r="O7">
         <v>0.023776479</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>2099.6981</v>
+      </c>
+      <c r="Q7">
+        <v>0.6224</v>
+      </c>
+      <c r="R7">
+        <v>0.3579</v>
+      </c>
+      <c r="S7" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3826,8 +4505,20 @@
       <c r="O8">
         <v>0.023586242</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="3">
+        <v>2294.263</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.7339</v>
+      </c>
+      <c r="R8">
+        <v>0.4107</v>
+      </c>
+      <c r="S8" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -3874,8 +4565,20 @@
       <c r="O9">
         <v>0.022379254</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1714.4047</v>
+      </c>
+      <c r="Q9">
+        <v>0.7247</v>
+      </c>
+      <c r="R9">
+        <v>0.5285</v>
+      </c>
+      <c r="S9" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -3922,8 +4625,20 @@
       <c r="O10">
         <v>0.015061074</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>2162.0435</v>
+      </c>
+      <c r="Q10">
+        <v>0.5955</v>
+      </c>
+      <c r="R10">
+        <v>0.7708</v>
+      </c>
+      <c r="S10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -3970,8 +4685,20 @@
       <c r="O11">
         <v>0.014946055</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1314.7895</v>
+      </c>
+      <c r="Q11">
+        <v>0.4879</v>
+      </c>
+      <c r="R11">
+        <v>0.7241</v>
+      </c>
+      <c r="S11" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -4017,6 +4744,654 @@
       </c>
       <c r="O12">
         <v>0.01434991</v>
+      </c>
+      <c r="P12">
+        <v>2571.1846</v>
+      </c>
+      <c r="Q12">
+        <v>0.4953</v>
+      </c>
+      <c r="R12">
+        <v>0.8253</v>
+      </c>
+      <c r="S12" s="2">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="46.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="39.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>90</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E35" si="0">100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
